--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1740.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1740.xlsx
@@ -351,10 +351,10 @@
         <v>0.8201356539298378</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.946131059274324</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1740.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1740.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8201356539298378</v>
+        <v>1.031827926635742</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.065965175628662</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.946131059274324</v>
+        <v>1.622238874435425</v>
       </c>
       <c r="E1">
-        <v>1.366573809761824</v>
+        <v>0.9792142510414124</v>
       </c>
     </row>
   </sheetData>
